--- a/flows/MLPX_fund_flow_data.xlsx
+++ b/flows/MLPX_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2658"/>
+  <dimension ref="A1:B2674"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27015,6 +27015,166 @@
         <v>-0.11832996</v>
       </c>
     </row>
+    <row r="2659">
+      <c r="A2659" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B2659" t="n">
+        <v>-0.025553718</v>
+      </c>
+    </row>
+    <row r="2660">
+      <c r="A2660" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B2660" t="n">
+        <v>-0.031170992</v>
+      </c>
+    </row>
+    <row r="2661">
+      <c r="A2661" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B2661" t="n">
+        <v>0.030615633</v>
+      </c>
+    </row>
+    <row r="2662">
+      <c r="A2662" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B2662" t="n">
+        <v>5.064024</v>
+      </c>
+    </row>
+    <row r="2663">
+      <c r="A2663" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B2663" t="n">
+        <v>-0.016153857</v>
+      </c>
+    </row>
+    <row r="2664">
+      <c r="A2664" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B2664" t="n">
+        <v>0.47248763</v>
+      </c>
+    </row>
+    <row r="2665">
+      <c r="A2665" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B2665" t="n">
+        <v>-0.88458097</v>
+      </c>
+    </row>
+    <row r="2666">
+      <c r="A2666" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B2666" t="n">
+        <v>1.359679</v>
+      </c>
+    </row>
+    <row r="2667">
+      <c r="A2667" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B2667" t="n">
+        <v>0.09992165</v>
+      </c>
+    </row>
+    <row r="2668">
+      <c r="A2668" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B2668" t="n">
+        <v>4.1515875</v>
+      </c>
+    </row>
+    <row r="2669">
+      <c r="A2669" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B2669" t="n">
+        <v>-0.14534879</v>
+      </c>
+    </row>
+    <row r="2670">
+      <c r="A2670" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B2670" t="n">
+        <v>0.08099634</v>
+      </c>
+    </row>
+    <row r="2671">
+      <c r="A2671" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B2671" t="n">
+        <v>0.025944939</v>
+      </c>
+    </row>
+    <row r="2672">
+      <c r="A2672" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B2672" t="n">
+        <v>0.9300055</v>
+      </c>
+    </row>
+    <row r="2673">
+      <c r="A2673" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B2673" t="n">
+        <v>-0.08923463</v>
+      </c>
+    </row>
+    <row r="2674">
+      <c r="A2674" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B2674" t="n">
+        <v>-0.7834314</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
